--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,32 +2636,32 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,98 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-istanbulspor-as/t0Z2FB2J/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5.49</v>
+        <v>2.93</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:59</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.18</v>
+        <v>3.53</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.51</v>
+        <v>3.44</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>2.53</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.67</v>
+        <v>3.78</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.93</v>
+        <v>5.49</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.53</v>
+        <v>4.18</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.44</v>
+        <v>4.51</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.53</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:56</t>
+          <t>18/09/2023 18:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.1</v>
+        <v>3.44</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:51</t>
+          <t>18/09/2023 18:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
         </is>
       </c>
     </row>
@@ -4870,6 +4870,742 @@
       <c r="V48" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-istanbulspor-as/t0Z2FB2J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>21/09/2023 09:10</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>21/09/2023 09:10</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>21/09/2023 09:10</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45193.79166666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45193.79166666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,98 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45194.79166666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-trabzonspor/Gb1A9LE0/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.67</v>
+        <v>3.78</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.93</v>
+        <v>5.49</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.53</v>
+        <v>4.18</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.44</v>
+        <v>4.51</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.53</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5.49</v>
+        <v>2.93</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:59</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.18</v>
+        <v>3.53</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.51</v>
+        <v>3.44</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>2.53</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.28</v>
+        <v>3.59</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.67</v>
+        <v>2.79</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.51</v>
+        <v>2.85</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:09</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.59</v>
+        <v>5.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.43</v>
+        <v>4.14</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.79</v>
+        <v>6.67</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.85</v>
+        <v>4.51</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:09</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,98 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-trabzonspor/Gb1A9LE0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45195.79166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>20/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>20/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>20/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-galatasaray/6PyFWoHk/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:51</t>
+          <t>18/09/2023 18:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:56</t>
+          <t>18/09/2023 18:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.1</v>
+        <v>3.44</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,98 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-galatasaray/6PyFWoHk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>21/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>21/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>21/08/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-besiktas/GfJ5g9O2/</t>
         </is>
       </c>
     </row>
